--- a/db/廉政系统数据库设计.xlsx
+++ b/db/廉政系统数据库设计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151FED4C-88C6-4EA4-9796-710CF235EF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="廉政系统" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="203">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,13 +704,141 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lianzheng_report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉政报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告周期开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告周期截至时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告创建人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告创建人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告状态编码（0：未发布 1：已发布 2：已删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告状态描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告更新人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告更新人名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,6 +1164,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1063,11 +1195,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1075,6 +1210,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1104,11 +1250,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1116,6 +1265,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1189,7 +1349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1222,9 +1382,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1257,6 +1434,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1432,11 +1626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3187,7 +3381,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3504,8 +3698,258 @@
         <v>37</v>
       </c>
     </row>
+    <row r="135" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="16"/>
+    </row>
+    <row r="136" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="C135:E135"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C48:E48"/>
@@ -3527,7 +3971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3590,7 +4034,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="2053">
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="2053">
           <objectPr defaultSize="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -3610,12 +4054,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="2053"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="2053"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="2054">
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="2054">
           <objectPr defaultSize="0" dde="1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -3635,7 +4079,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Package" dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="2054"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="2054"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -3643,7 +4087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
